--- a/01-Excel/01-文本函数/文本函数.xlsx
+++ b/01-Excel/01-文本函数/文本函数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E1F43-DD19-C843-8F73-5458EDEF2F6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB0DE5-AD34-E240-8C87-D4C450F145F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4140,7 +4140,7 @@
   <dimension ref="A1:O451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J451" sqref="J451"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4219,10 +4219,7 @@
       <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="str">
-        <f>MID(E2,3,6)</f>
-        <v>1-3年</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4">
         <v>1</v>
       </c>
@@ -4263,10 +4260,7 @@
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F66" si="0">MID(E3,3,6)</f>
-        <v>3-5年</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>1</v>
       </c>
@@ -4307,10 +4301,7 @@
       <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4">
         <v>1</v>
       </c>
@@ -4351,10 +4342,7 @@
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4">
         <v>1</v>
       </c>
@@ -4395,10 +4383,7 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
@@ -4439,10 +4424,7 @@
       <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4">
         <v>1</v>
       </c>
@@ -4483,10 +4465,7 @@
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -4527,10 +4506,7 @@
       <c r="E9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>不限</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4">
         <v>1</v>
       </c>
@@ -4571,10 +4547,7 @@
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4">
         <v>1</v>
       </c>
@@ -4615,10 +4588,7 @@
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4">
         <v>1</v>
       </c>
@@ -4659,10 +4629,7 @@
       <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -4703,10 +4670,7 @@
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>1</v>
       </c>
@@ -4747,10 +4711,7 @@
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4">
         <v>1</v>
       </c>
@@ -4791,10 +4752,7 @@
       <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>51</v>
       </c>
@@ -4835,10 +4793,7 @@
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -4879,10 +4834,7 @@
       <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>1</v>
       </c>
@@ -4923,10 +4875,7 @@
       <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>1</v>
       </c>
@@ -4967,10 +4916,7 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4">
         <v>1</v>
       </c>
@@ -5011,10 +4957,7 @@
       <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -5055,10 +4998,7 @@
       <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4">
         <v>1</v>
       </c>
@@ -5099,10 +5039,7 @@
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4">
         <v>1</v>
       </c>
@@ -5143,10 +5080,7 @@
       <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4">
         <v>1</v>
       </c>
@@ -5187,10 +5121,7 @@
       <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
         <v>51</v>
       </c>
@@ -5231,10 +5162,7 @@
       <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4">
         <v>1</v>
       </c>
@@ -5275,10 +5203,7 @@
       <c r="E26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4">
         <v>1</v>
       </c>
@@ -5319,10 +5244,7 @@
       <c r="E27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4">
         <v>1</v>
       </c>
@@ -5363,10 +5285,7 @@
       <c r="E28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4">
         <v>1</v>
       </c>
@@ -5407,10 +5326,7 @@
       <c r="E29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4">
         <v>1</v>
       </c>
@@ -5451,10 +5367,7 @@
       <c r="E30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4">
         <v>1</v>
       </c>
@@ -5495,10 +5408,7 @@
       <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4">
         <v>1</v>
       </c>
@@ -5539,10 +5449,7 @@
       <c r="E32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4">
         <v>1</v>
       </c>
@@ -5583,10 +5490,7 @@
       <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4">
         <v>1</v>
       </c>
@@ -5627,10 +5531,7 @@
       <c r="E34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="4">
         <v>1</v>
       </c>
@@ -5671,10 +5572,7 @@
       <c r="E35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4">
         <v>1</v>
       </c>
@@ -5715,10 +5613,7 @@
       <c r="E36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4">
         <v>1</v>
       </c>
@@ -5759,10 +5654,7 @@
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4">
         <v>1</v>
       </c>
@@ -5803,10 +5695,7 @@
       <c r="E38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4">
         <v>1</v>
       </c>
@@ -5847,10 +5736,7 @@
       <c r="E39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4">
         <v>1</v>
       </c>
@@ -5891,10 +5777,7 @@
       <c r="E40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4">
         <v>1</v>
       </c>
@@ -5935,10 +5818,7 @@
       <c r="E41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4">
         <v>1</v>
       </c>
@@ -5979,10 +5859,7 @@
       <c r="E42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="4">
         <v>1</v>
       </c>
@@ -6023,10 +5900,7 @@
       <c r="E43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4">
         <v>1</v>
       </c>
@@ -6067,10 +5941,7 @@
       <c r="E44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4">
         <v>1</v>
       </c>
@@ -6111,10 +5982,7 @@
       <c r="E45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="4">
         <v>1</v>
       </c>
@@ -6155,10 +6023,7 @@
       <c r="E46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F46" s="4"/>
       <c r="G46" s="4">
         <v>1</v>
       </c>
@@ -6199,10 +6064,7 @@
       <c r="E47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="4">
         <v>1</v>
       </c>
@@ -6243,10 +6105,7 @@
       <c r="E48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F48" s="4"/>
       <c r="G48" s="4">
         <v>1</v>
       </c>
@@ -6287,10 +6146,7 @@
       <c r="E49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="4">
         <v>1</v>
       </c>
@@ -6331,10 +6187,7 @@
       <c r="E50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="4">
         <v>1</v>
       </c>
@@ -6375,10 +6228,7 @@
       <c r="E51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="4">
         <v>1</v>
       </c>
@@ -6419,10 +6269,7 @@
       <c r="E52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F52" s="4"/>
       <c r="G52" s="4">
         <v>1</v>
       </c>
@@ -6463,10 +6310,7 @@
       <c r="E53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F53" s="4"/>
       <c r="G53" s="4">
         <v>1</v>
       </c>
@@ -6507,10 +6351,7 @@
       <c r="E54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="4">
         <v>1</v>
       </c>
@@ -6551,10 +6392,7 @@
       <c r="E55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F55" s="4"/>
       <c r="G55" s="4">
         <v>1</v>
       </c>
@@ -6595,10 +6433,7 @@
       <c r="E56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F56" s="4"/>
       <c r="G56" s="4">
         <v>1</v>
       </c>
@@ -6639,10 +6474,7 @@
       <c r="E57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4">
         <v>1</v>
       </c>
@@ -6683,10 +6515,7 @@
       <c r="E58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
         <v>51</v>
       </c>
@@ -6727,10 +6556,7 @@
       <c r="E59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="4">
         <v>1</v>
       </c>
@@ -6771,10 +6597,7 @@
       <c r="E60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4">
         <v>1</v>
       </c>
@@ -6815,10 +6638,7 @@
       <c r="E61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4">
         <v>1</v>
       </c>
@@ -6859,10 +6679,7 @@
       <c r="E62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="4">
         <v>1</v>
       </c>
@@ -6903,10 +6720,7 @@
       <c r="E63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="4">
         <v>1</v>
       </c>
@@ -6947,10 +6761,7 @@
       <c r="E64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="4">
         <v>1</v>
       </c>
@@ -6991,10 +6802,7 @@
       <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="4">
         <v>1</v>
       </c>
@@ -7035,10 +6843,7 @@
       <c r="E66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="4">
         <v>1</v>
       </c>
@@ -7079,10 +6884,7 @@
       <c r="E67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="4" t="str">
-        <f t="shared" ref="F67:F130" si="1">MID(E67,3,6)</f>
-        <v>3-5年</v>
-      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4">
         <v>1</v>
       </c>
@@ -7123,10 +6925,7 @@
       <c r="E68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="4">
         <v>1</v>
       </c>
@@ -7167,10 +6966,7 @@
       <c r="E69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="4">
         <v>1</v>
       </c>
@@ -7211,10 +7007,7 @@
       <c r="E70" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F70" s="4"/>
       <c r="G70" s="4">
         <v>1</v>
       </c>
@@ -7255,10 +7048,7 @@
       <c r="E71" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F71" s="4"/>
       <c r="G71" s="4">
         <v>1</v>
       </c>
@@ -7299,10 +7089,7 @@
       <c r="E72" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
         <v>51</v>
       </c>
@@ -7343,10 +7130,7 @@
       <c r="E73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F73" s="4"/>
       <c r="G73" s="4">
         <v>1</v>
       </c>
@@ -7387,10 +7171,7 @@
       <c r="E74" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="4">
         <v>1</v>
       </c>
@@ -7431,10 +7212,7 @@
       <c r="E75" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F75" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="4">
         <v>1</v>
       </c>
@@ -7475,10 +7253,7 @@
       <c r="E76" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F76" s="4"/>
       <c r="G76" s="4">
         <v>1</v>
       </c>
@@ -7519,10 +7294,7 @@
       <c r="E77" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="4">
         <v>1</v>
       </c>
@@ -7563,10 +7335,7 @@
       <c r="E78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F78" s="4"/>
       <c r="G78" s="4">
         <v>1</v>
       </c>
@@ -7607,10 +7376,7 @@
       <c r="E79" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="4">
         <v>1</v>
       </c>
@@ -7651,10 +7417,7 @@
       <c r="E80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F80" s="4"/>
       <c r="G80" s="4">
         <v>1</v>
       </c>
@@ -7695,10 +7458,7 @@
       <c r="E81" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="4">
         <v>1</v>
       </c>
@@ -7739,10 +7499,7 @@
       <c r="E82" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F82" s="4"/>
       <c r="G82" s="4">
         <v>1</v>
       </c>
@@ -7783,10 +7540,7 @@
       <c r="E83" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="4">
         <v>1</v>
       </c>
@@ -7827,10 +7581,7 @@
       <c r="E84" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
         <v>51</v>
       </c>
@@ -7871,10 +7622,7 @@
       <c r="E85" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F85" s="4"/>
       <c r="G85" s="4">
         <v>1</v>
       </c>
@@ -7915,10 +7663,7 @@
       <c r="E86" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="4">
         <v>1</v>
       </c>
@@ -7959,10 +7704,7 @@
       <c r="E87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F87" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="4">
         <v>1</v>
       </c>
@@ -8003,10 +7745,7 @@
       <c r="E88" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F88" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F88" s="4"/>
       <c r="G88" s="4">
         <v>1</v>
       </c>
@@ -8047,10 +7786,7 @@
       <c r="E89" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F89" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="4">
         <v>1</v>
       </c>
@@ -8091,10 +7827,7 @@
       <c r="E90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F90" s="4"/>
       <c r="G90" s="4">
         <v>1</v>
       </c>
@@ -8135,10 +7868,7 @@
       <c r="E91" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F91" s="4"/>
       <c r="G91" s="4">
         <v>1</v>
       </c>
@@ -8179,10 +7909,7 @@
       <c r="E92" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F92" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F92" s="4"/>
       <c r="G92" s="4">
         <v>1</v>
       </c>
@@ -8223,10 +7950,7 @@
       <c r="E93" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F93" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="4">
         <v>1</v>
       </c>
@@ -8267,10 +7991,7 @@
       <c r="E94" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F94" s="4"/>
       <c r="G94" s="4">
         <v>1</v>
       </c>
@@ -8311,10 +8032,7 @@
       <c r="E95" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F95" s="4"/>
       <c r="G95" s="4">
         <v>1</v>
       </c>
@@ -8355,10 +8073,7 @@
       <c r="E96" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F96" s="4"/>
       <c r="G96" s="4">
         <v>1</v>
       </c>
@@ -8399,10 +8114,7 @@
       <c r="E97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F97" s="4"/>
       <c r="G97" s="4">
         <v>1</v>
       </c>
@@ -8443,10 +8155,7 @@
       <c r="E98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F98" s="4"/>
       <c r="G98" s="4">
         <v>1</v>
       </c>
@@ -8487,10 +8196,7 @@
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="4">
         <v>1</v>
       </c>
@@ -8531,10 +8237,7 @@
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F100" s="4"/>
       <c r="G100" s="4">
         <v>1</v>
       </c>
@@ -8575,10 +8278,7 @@
       <c r="E101" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
         <v>51</v>
       </c>
@@ -8619,10 +8319,7 @@
       <c r="E102" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F102" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F102" s="4"/>
       <c r="G102" s="4">
         <v>1</v>
       </c>
@@ -8663,10 +8360,7 @@
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F103" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
         <v>51</v>
       </c>
@@ -8707,10 +8401,7 @@
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="4">
         <v>1</v>
       </c>
@@ -8751,10 +8442,7 @@
       <c r="E105" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F105" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F105" s="4"/>
       <c r="G105" s="4">
         <v>1</v>
       </c>
@@ -8795,10 +8483,7 @@
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
         <v>354</v>
       </c>
@@ -8839,10 +8524,7 @@
       <c r="E107" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F107" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F107" s="4"/>
       <c r="G107" s="4">
         <v>1</v>
       </c>
@@ -8883,10 +8565,7 @@
       <c r="E108" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="4">
         <v>1</v>
       </c>
@@ -8927,10 +8606,7 @@
       <c r="E109" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F109" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F109" s="4"/>
       <c r="G109" s="4">
         <v>1</v>
       </c>
@@ -8971,10 +8647,7 @@
       <c r="E110" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F110" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F110" s="4"/>
       <c r="G110" s="4">
         <v>1</v>
       </c>
@@ -9015,10 +8688,7 @@
       <c r="E111" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F111" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F111" s="4"/>
       <c r="G111" s="4">
         <v>1</v>
       </c>
@@ -9059,10 +8729,7 @@
       <c r="E112" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F112" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F112" s="4"/>
       <c r="G112" s="4">
         <v>1</v>
       </c>
@@ -9103,10 +8770,7 @@
       <c r="E113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F113" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F113" s="4"/>
       <c r="G113" s="4">
         <v>1</v>
       </c>
@@ -9147,10 +8811,7 @@
       <c r="E114" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F114" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F114" s="4"/>
       <c r="G114" s="4">
         <v>1</v>
       </c>
@@ -9191,10 +8852,7 @@
       <c r="E115" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="4">
         <v>1</v>
       </c>
@@ -9235,10 +8893,7 @@
       <c r="E116" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F116" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F116" s="4"/>
       <c r="G116" s="4" t="s">
         <v>51</v>
       </c>
@@ -9279,10 +8934,7 @@
       <c r="E117" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F117" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="4">
         <v>1</v>
       </c>
@@ -9323,10 +8975,7 @@
       <c r="E118" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F118" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F118" s="4"/>
       <c r="G118" s="4">
         <v>1</v>
       </c>
@@ -9367,10 +9016,7 @@
       <c r="E119" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="4">
         <v>1</v>
       </c>
@@ -9411,10 +9057,7 @@
       <c r="E120" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F120" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F120" s="4"/>
       <c r="G120" s="4">
         <v>1</v>
       </c>
@@ -9455,10 +9098,7 @@
       <c r="E121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F121" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F121" s="4"/>
       <c r="G121" s="4">
         <v>1</v>
       </c>
@@ -9499,10 +9139,7 @@
       <c r="E122" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F122" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="4">
         <v>1</v>
       </c>
@@ -9543,10 +9180,7 @@
       <c r="E123" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F123" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F123" s="4"/>
       <c r="G123" s="4">
         <v>1</v>
       </c>
@@ -9587,10 +9221,7 @@
       <c r="E124" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="4">
         <v>1</v>
       </c>
@@ -9631,10 +9262,7 @@
       <c r="E125" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F125" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F125" s="4"/>
       <c r="G125" s="4">
         <v>1</v>
       </c>
@@ -9675,10 +9303,7 @@
       <c r="E126" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F126" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F126" s="4"/>
       <c r="G126" s="4" t="s">
         <v>51</v>
       </c>
@@ -9719,10 +9344,7 @@
       <c r="E127" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F127" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F127" s="4"/>
       <c r="G127" s="4">
         <v>1</v>
       </c>
@@ -9763,10 +9385,7 @@
       <c r="E128" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F128" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F128" s="4"/>
       <c r="G128" s="4">
         <v>1</v>
       </c>
@@ -9807,10 +9426,7 @@
       <c r="E129" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F129" s="4"/>
       <c r="G129" s="4">
         <v>1</v>
       </c>
@@ -9851,10 +9467,7 @@
       <c r="E130" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F130" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F130" s="4"/>
       <c r="G130" s="4">
         <v>1</v>
       </c>
@@ -9895,10 +9508,7 @@
       <c r="E131" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F131" s="4" t="str">
-        <f t="shared" ref="F131:F194" si="2">MID(E131,3,6)</f>
-        <v>3-5年</v>
-      </c>
+      <c r="F131" s="4"/>
       <c r="G131" s="4">
         <v>1</v>
       </c>
@@ -9939,10 +9549,7 @@
       <c r="E132" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F132" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
         <v>51</v>
       </c>
@@ -9983,10 +9590,7 @@
       <c r="E133" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
         <v>354</v>
       </c>
@@ -10027,10 +9631,7 @@
       <c r="E134" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F134" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F134" s="4"/>
       <c r="G134" s="4">
         <v>1</v>
       </c>
@@ -10071,10 +9672,7 @@
       <c r="E135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F135" s="4"/>
       <c r="G135" s="4">
         <v>1</v>
       </c>
@@ -10115,10 +9713,7 @@
       <c r="E136" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F136" s="4"/>
       <c r="G136" s="4">
         <v>1</v>
       </c>
@@ -10159,10 +9754,7 @@
       <c r="E137" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F137" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F137" s="4"/>
       <c r="G137" s="4">
         <v>1</v>
       </c>
@@ -10203,10 +9795,7 @@
       <c r="E138" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F138" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F138" s="4"/>
       <c r="G138" s="4">
         <v>1</v>
       </c>
@@ -10247,10 +9836,7 @@
       <c r="E139" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F139" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F139" s="4"/>
       <c r="G139" s="4">
         <v>1</v>
       </c>
@@ -10291,10 +9877,7 @@
       <c r="E140" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F140" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F140" s="4"/>
       <c r="G140" s="4">
         <v>1</v>
       </c>
@@ -10335,10 +9918,7 @@
       <c r="E141" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F141" s="4"/>
       <c r="G141" s="4">
         <v>1</v>
       </c>
@@ -10379,10 +9959,7 @@
       <c r="E142" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F142" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F142" s="4"/>
       <c r="G142" s="4">
         <v>1</v>
       </c>
@@ -10423,10 +10000,7 @@
       <c r="E143" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F143" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F143" s="4"/>
       <c r="G143" s="4">
         <v>1</v>
       </c>
@@ -10467,10 +10041,7 @@
       <c r="E144" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F144" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F144" s="4"/>
       <c r="G144" s="4" t="s">
         <v>51</v>
       </c>
@@ -10511,10 +10082,7 @@
       <c r="E145" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F145" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
         <v>354</v>
       </c>
@@ -10555,10 +10123,7 @@
       <c r="E146" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F146" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F146" s="4"/>
       <c r="G146" s="4">
         <v>1</v>
       </c>
@@ -10599,10 +10164,7 @@
       <c r="E147" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F147" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F147" s="4"/>
       <c r="G147" s="4">
         <v>1</v>
       </c>
@@ -10643,10 +10205,7 @@
       <c r="E148" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F148" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F148" s="4"/>
       <c r="G148" s="4">
         <v>1</v>
       </c>
@@ -10687,10 +10246,7 @@
       <c r="E149" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F149" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F149" s="4"/>
       <c r="G149" s="4" t="s">
         <v>354</v>
       </c>
@@ -10731,10 +10287,7 @@
       <c r="E150" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F150" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F150" s="4"/>
       <c r="G150" s="4">
         <v>1</v>
       </c>
@@ -10775,10 +10328,7 @@
       <c r="E151" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F151" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F151" s="4"/>
       <c r="G151" s="4">
         <v>1</v>
       </c>
@@ -10819,10 +10369,7 @@
       <c r="E152" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F152" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F152" s="4"/>
       <c r="G152" s="4">
         <v>1</v>
       </c>
@@ -10863,10 +10410,7 @@
       <c r="E153" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F153" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F153" s="4"/>
       <c r="G153" s="4" t="s">
         <v>51</v>
       </c>
@@ -10907,10 +10451,7 @@
       <c r="E154" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F154" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F154" s="4"/>
       <c r="G154" s="4">
         <v>1</v>
       </c>
@@ -10951,10 +10492,7 @@
       <c r="E155" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F155" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F155" s="4"/>
       <c r="G155" s="4" t="s">
         <v>354</v>
       </c>
@@ -10995,10 +10533,7 @@
       <c r="E156" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F156" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F156" s="4"/>
       <c r="G156" s="4">
         <v>1</v>
       </c>
@@ -11039,10 +10574,7 @@
       <c r="E157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F157" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F157" s="4"/>
       <c r="G157" s="4">
         <v>1</v>
       </c>
@@ -11083,10 +10615,7 @@
       <c r="E158" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F158" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F158" s="4"/>
       <c r="G158" s="4" t="s">
         <v>354</v>
       </c>
@@ -11127,10 +10656,7 @@
       <c r="E159" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F159" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F159" s="4"/>
       <c r="G159" s="4">
         <v>1</v>
       </c>
@@ -11171,10 +10697,7 @@
       <c r="E160" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F160" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F160" s="4"/>
       <c r="G160" s="4">
         <v>1</v>
       </c>
@@ -11215,10 +10738,7 @@
       <c r="E161" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F161" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F161" s="4"/>
       <c r="G161" s="4">
         <v>1</v>
       </c>
@@ -11259,10 +10779,7 @@
       <c r="E162" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F162" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F162" s="4"/>
       <c r="G162" s="4">
         <v>1</v>
       </c>
@@ -11303,10 +10820,7 @@
       <c r="E163" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F163" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F163" s="4"/>
       <c r="G163" s="4">
         <v>1</v>
       </c>
@@ -11347,10 +10861,7 @@
       <c r="E164" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F164" s="4"/>
       <c r="G164" s="4">
         <v>1</v>
       </c>
@@ -11391,10 +10902,7 @@
       <c r="E165" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F165" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F165" s="4"/>
       <c r="G165" s="4">
         <v>1</v>
       </c>
@@ -11435,10 +10943,7 @@
       <c r="E166" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F166" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F166" s="4"/>
       <c r="G166" s="4" t="s">
         <v>354</v>
       </c>
@@ -11479,10 +10984,7 @@
       <c r="E167" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F167" s="4"/>
       <c r="G167" s="4">
         <v>1</v>
       </c>
@@ -11523,10 +11025,7 @@
       <c r="E168" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F168" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F168" s="4"/>
       <c r="G168" s="4">
         <v>1</v>
       </c>
@@ -11567,10 +11066,7 @@
       <c r="E169" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F169" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F169" s="4"/>
       <c r="G169" s="4">
         <v>1</v>
       </c>
@@ -11611,10 +11107,7 @@
       <c r="E170" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F170" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F170" s="4"/>
       <c r="G170" s="4">
         <v>1</v>
       </c>
@@ -11655,10 +11148,7 @@
       <c r="E171" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F171" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F171" s="4"/>
       <c r="G171" s="4">
         <v>1</v>
       </c>
@@ -11699,10 +11189,7 @@
       <c r="E172" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F172" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F172" s="4"/>
       <c r="G172" s="4" t="s">
         <v>354</v>
       </c>
@@ -11743,10 +11230,7 @@
       <c r="E173" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F173" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F173" s="4"/>
       <c r="G173" s="4">
         <v>1</v>
       </c>
@@ -11787,10 +11271,7 @@
       <c r="E174" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F174" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F174" s="4"/>
       <c r="G174" s="4">
         <v>1</v>
       </c>
@@ -11831,10 +11312,7 @@
       <c r="E175" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F175" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F175" s="4"/>
       <c r="G175" s="4">
         <v>1</v>
       </c>
@@ -11875,10 +11353,7 @@
       <c r="E176" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F176" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F176" s="4"/>
       <c r="G176" s="4">
         <v>1</v>
       </c>
@@ -11919,10 +11394,7 @@
       <c r="E177" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F177" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F177" s="4"/>
       <c r="G177" s="4">
         <v>1</v>
       </c>
@@ -11963,10 +11435,7 @@
       <c r="E178" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F178" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>不限</v>
-      </c>
+      <c r="F178" s="4"/>
       <c r="G178" s="4">
         <v>1</v>
       </c>
@@ -12007,10 +11476,7 @@
       <c r="E179" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F179" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F179" s="4"/>
       <c r="G179" s="4">
         <v>1</v>
       </c>
@@ -12051,10 +11517,7 @@
       <c r="E180" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F180" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F180" s="4"/>
       <c r="G180" s="4">
         <v>1</v>
       </c>
@@ -12095,10 +11558,7 @@
       <c r="E181" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F181" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F181" s="4"/>
       <c r="G181" s="4">
         <v>1</v>
       </c>
@@ -12139,10 +11599,7 @@
       <c r="E182" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F182" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F182" s="4"/>
       <c r="G182" s="4">
         <v>1</v>
       </c>
@@ -12183,10 +11640,7 @@
       <c r="E183" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F183" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F183" s="4"/>
       <c r="G183" s="4">
         <v>1</v>
       </c>
@@ -12227,10 +11681,7 @@
       <c r="E184" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F184" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>不限</v>
-      </c>
+      <c r="F184" s="4"/>
       <c r="G184" s="4">
         <v>1</v>
       </c>
@@ -12271,10 +11722,7 @@
       <c r="E185" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F185" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F185" s="4"/>
       <c r="G185" s="4">
         <v>1</v>
       </c>
@@ -12315,10 +11763,7 @@
       <c r="E186" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F186" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F186" s="4"/>
       <c r="G186" s="4">
         <v>1</v>
       </c>
@@ -12359,10 +11804,7 @@
       <c r="E187" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F187" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F187" s="4"/>
       <c r="G187" s="4">
         <v>1</v>
       </c>
@@ -12403,10 +11845,7 @@
       <c r="E188" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F188" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F188" s="4"/>
       <c r="G188" s="4">
         <v>1</v>
       </c>
@@ -12447,10 +11886,7 @@
       <c r="E189" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F189" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F189" s="4"/>
       <c r="G189" s="4">
         <v>1</v>
       </c>
@@ -12491,10 +11927,7 @@
       <c r="E190" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F190" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F190" s="4"/>
       <c r="G190" s="4">
         <v>1</v>
       </c>
@@ -12535,10 +11968,7 @@
       <c r="E191" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F191" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F191" s="4"/>
       <c r="G191" s="4">
         <v>1</v>
       </c>
@@ -12579,10 +12009,7 @@
       <c r="E192" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F192" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F192" s="4"/>
       <c r="G192" s="4" t="s">
         <v>354</v>
       </c>
@@ -12623,10 +12050,7 @@
       <c r="E193" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F193" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>不限</v>
-      </c>
+      <c r="F193" s="4"/>
       <c r="G193" s="4" t="s">
         <v>51</v>
       </c>
@@ -12667,10 +12091,7 @@
       <c r="E194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F194" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F194" s="4"/>
       <c r="G194" s="4">
         <v>1</v>
       </c>
@@ -12711,10 +12132,7 @@
       <c r="E195" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F195" s="4" t="str">
-        <f t="shared" ref="F195:F258" si="3">MID(E195,3,6)</f>
-        <v>不限</v>
-      </c>
+      <c r="F195" s="4"/>
       <c r="G195" s="4">
         <v>1</v>
       </c>
@@ -12755,10 +12173,7 @@
       <c r="E196" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F196" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F196" s="4"/>
       <c r="G196" s="4">
         <v>1</v>
       </c>
@@ -12799,10 +12214,7 @@
       <c r="E197" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F197" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F197" s="4"/>
       <c r="G197" s="4">
         <v>1</v>
       </c>
@@ -12843,10 +12255,7 @@
       <c r="E198" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F198" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F198" s="4"/>
       <c r="G198" s="4" t="s">
         <v>354</v>
       </c>
@@ -12887,10 +12296,7 @@
       <c r="E199" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F199" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>不限</v>
-      </c>
+      <c r="F199" s="4"/>
       <c r="G199" s="4" t="s">
         <v>51</v>
       </c>
@@ -12931,10 +12337,7 @@
       <c r="E200" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F200" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F200" s="4"/>
       <c r="G200" s="4">
         <v>1</v>
       </c>
@@ -12975,10 +12378,7 @@
       <c r="E201" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F201" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F201" s="4"/>
       <c r="G201" s="4">
         <v>1</v>
       </c>
@@ -13019,10 +12419,7 @@
       <c r="E202" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F202" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F202" s="4"/>
       <c r="G202" s="4">
         <v>1</v>
       </c>
@@ -13063,10 +12460,7 @@
       <c r="E203" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F203" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F203" s="4"/>
       <c r="G203" s="4">
         <v>1</v>
       </c>
@@ -13107,10 +12501,7 @@
       <c r="E204" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F204" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F204" s="4"/>
       <c r="G204" s="4" t="s">
         <v>354</v>
       </c>
@@ -13151,10 +12542,7 @@
       <c r="E205" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F205" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F205" s="4"/>
       <c r="G205" s="4">
         <v>1</v>
       </c>
@@ -13195,10 +12583,7 @@
       <c r="E206" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F206" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F206" s="4"/>
       <c r="G206" s="4">
         <v>1</v>
       </c>
@@ -13239,10 +12624,7 @@
       <c r="E207" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F207" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F207" s="4"/>
       <c r="G207" s="4">
         <v>1</v>
       </c>
@@ -13283,10 +12665,7 @@
       <c r="E208" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F208" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F208" s="4"/>
       <c r="G208" s="4">
         <v>1</v>
       </c>
@@ -13327,10 +12706,7 @@
       <c r="E209" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F209" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F209" s="4"/>
       <c r="G209" s="4">
         <v>1</v>
       </c>
@@ -13371,10 +12747,7 @@
       <c r="E210" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F210" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F210" s="4"/>
       <c r="G210" s="4" t="s">
         <v>354</v>
       </c>
@@ -13415,10 +12788,7 @@
       <c r="E211" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F211" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F211" s="4"/>
       <c r="G211" s="4">
         <v>1</v>
       </c>
@@ -13459,10 +12829,7 @@
       <c r="E212" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F212" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F212" s="4"/>
       <c r="G212" s="4" t="s">
         <v>51</v>
       </c>
@@ -13503,10 +12870,7 @@
       <c r="E213" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F213" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F213" s="4"/>
       <c r="G213" s="4">
         <v>1</v>
       </c>
@@ -13547,10 +12911,7 @@
       <c r="E214" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F214" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F214" s="4"/>
       <c r="G214" s="4">
         <v>1</v>
       </c>
@@ -13591,10 +12952,7 @@
       <c r="E215" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F215" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F215" s="4"/>
       <c r="G215" s="4">
         <v>1</v>
       </c>
@@ -13635,10 +12993,7 @@
       <c r="E216" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F216" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F216" s="4"/>
       <c r="G216" s="4" t="s">
         <v>51</v>
       </c>
@@ -13679,10 +13034,7 @@
       <c r="E217" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F217" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F217" s="4"/>
       <c r="G217" s="4">
         <v>1</v>
       </c>
@@ -13723,10 +13075,7 @@
       <c r="E218" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F218" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F218" s="4"/>
       <c r="G218" s="4">
         <v>1</v>
       </c>
@@ -13767,10 +13116,7 @@
       <c r="E219" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F219" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F219" s="4"/>
       <c r="G219" s="4">
         <v>1</v>
       </c>
@@ -13811,10 +13157,7 @@
       <c r="E220" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F220" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F220" s="4"/>
       <c r="G220" s="4">
         <v>1</v>
       </c>
@@ -13855,10 +13198,7 @@
       <c r="E221" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F221" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F221" s="4"/>
       <c r="G221" s="4" t="s">
         <v>51</v>
       </c>
@@ -13899,10 +13239,7 @@
       <c r="E222" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F222" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F222" s="4"/>
       <c r="G222" s="4">
         <v>1</v>
       </c>
@@ -13943,10 +13280,7 @@
       <c r="E223" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F223" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F223" s="4"/>
       <c r="G223" s="4">
         <v>1</v>
       </c>
@@ -13987,10 +13321,7 @@
       <c r="E224" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F224" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F224" s="4"/>
       <c r="G224" s="4">
         <v>1</v>
       </c>
@@ -14031,10 +13362,7 @@
       <c r="E225" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F225" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F225" s="4"/>
       <c r="G225" s="4">
         <v>1</v>
       </c>
@@ -14075,10 +13403,7 @@
       <c r="E226" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F226" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F226" s="4"/>
       <c r="G226" s="4" t="s">
         <v>51</v>
       </c>
@@ -14119,10 +13444,7 @@
       <c r="E227" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F227" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F227" s="4"/>
       <c r="G227" s="4">
         <v>1</v>
       </c>
@@ -14163,10 +13485,7 @@
       <c r="E228" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F228" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F228" s="4"/>
       <c r="G228" s="4">
         <v>1</v>
       </c>
@@ -14207,10 +13526,7 @@
       <c r="E229" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F229" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F229" s="4"/>
       <c r="G229" s="4" t="s">
         <v>51</v>
       </c>
@@ -14251,10 +13567,7 @@
       <c r="E230" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F230" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F230" s="4"/>
       <c r="G230" s="4">
         <v>1</v>
       </c>
@@ -14295,10 +13608,7 @@
       <c r="E231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F231" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F231" s="4"/>
       <c r="G231" s="4">
         <v>1</v>
       </c>
@@ -14339,10 +13649,7 @@
       <c r="E232" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F232" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F232" s="4"/>
       <c r="G232" s="4">
         <v>1</v>
       </c>
@@ -14383,10 +13690,7 @@
       <c r="E233" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F233" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F233" s="4"/>
       <c r="G233" s="4">
         <v>1</v>
       </c>
@@ -14427,10 +13731,7 @@
       <c r="E234" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F234" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F234" s="4"/>
       <c r="G234" s="4" t="s">
         <v>51</v>
       </c>
@@ -14471,10 +13772,7 @@
       <c r="E235" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F235" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F235" s="4"/>
       <c r="G235" s="4">
         <v>1</v>
       </c>
@@ -14515,10 +13813,7 @@
       <c r="E236" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F236" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F236" s="4"/>
       <c r="G236" s="4">
         <v>1</v>
       </c>
@@ -14559,10 +13854,7 @@
       <c r="E237" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="F237" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>应届毕业生</v>
-      </c>
+      <c r="F237" s="4"/>
       <c r="G237" s="4" t="s">
         <v>634</v>
       </c>
@@ -14603,10 +13895,7 @@
       <c r="E238" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F238" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F238" s="4"/>
       <c r="G238" s="4">
         <v>1</v>
       </c>
@@ -14647,10 +13936,7 @@
       <c r="E239" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F239" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F239" s="4"/>
       <c r="G239" s="4">
         <v>1</v>
       </c>
@@ -14691,10 +13977,7 @@
       <c r="E240" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F240" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F240" s="4"/>
       <c r="G240" s="4">
         <v>1</v>
       </c>
@@ -14735,10 +14018,7 @@
       <c r="E241" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F241" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F241" s="4"/>
       <c r="G241" s="4">
         <v>1</v>
       </c>
@@ -14779,10 +14059,7 @@
       <c r="E242" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F242" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F242" s="4"/>
       <c r="G242" s="4">
         <v>1</v>
       </c>
@@ -14823,10 +14100,7 @@
       <c r="E243" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F243" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F243" s="4"/>
       <c r="G243" s="4">
         <v>1</v>
       </c>
@@ -14867,10 +14141,7 @@
       <c r="E244" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F244" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F244" s="4"/>
       <c r="G244" s="4" t="s">
         <v>354</v>
       </c>
@@ -14911,10 +14182,7 @@
       <c r="E245" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F245" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F245" s="4"/>
       <c r="G245" s="4">
         <v>1</v>
       </c>
@@ -14955,10 +14223,7 @@
       <c r="E246" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F246" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F246" s="4"/>
       <c r="G246" s="4">
         <v>1</v>
       </c>
@@ -14999,10 +14264,7 @@
       <c r="E247" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F247" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F247" s="4"/>
       <c r="G247" s="4">
         <v>1</v>
       </c>
@@ -15043,10 +14305,7 @@
       <c r="E248" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F248" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F248" s="4"/>
       <c r="G248" s="4" t="s">
         <v>51</v>
       </c>
@@ -15087,10 +14346,7 @@
       <c r="E249" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F249" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F249" s="4"/>
       <c r="G249" s="4">
         <v>1</v>
       </c>
@@ -15131,10 +14387,7 @@
       <c r="E250" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F250" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F250" s="4"/>
       <c r="G250" s="4">
         <v>1</v>
       </c>
@@ -15175,10 +14428,7 @@
       <c r="E251" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F251" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F251" s="4"/>
       <c r="G251" s="4">
         <v>1</v>
       </c>
@@ -15219,10 +14469,7 @@
       <c r="E252" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F252" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F252" s="4"/>
       <c r="G252" s="4">
         <v>1</v>
       </c>
@@ -15263,10 +14510,7 @@
       <c r="E253" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F253" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F253" s="4"/>
       <c r="G253" s="4">
         <v>1</v>
       </c>
@@ -15307,10 +14551,7 @@
       <c r="E254" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F254" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F254" s="4"/>
       <c r="G254" s="4">
         <v>1</v>
       </c>
@@ -15351,10 +14592,7 @@
       <c r="E255" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F255" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F255" s="4"/>
       <c r="G255" s="4">
         <v>1</v>
       </c>
@@ -15395,10 +14633,7 @@
       <c r="E256" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F256" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F256" s="4"/>
       <c r="G256" s="4">
         <v>1</v>
       </c>
@@ -15439,10 +14674,7 @@
       <c r="E257" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F257" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F257" s="4"/>
       <c r="G257" s="4">
         <v>1</v>
       </c>
@@ -15483,10 +14715,7 @@
       <c r="E258" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F258" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F258" s="4"/>
       <c r="G258" s="4">
         <v>1</v>
       </c>
@@ -15527,10 +14756,7 @@
       <c r="E259" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F259" s="4" t="str">
-        <f t="shared" ref="F259:F322" si="4">MID(E259,3,6)</f>
-        <v>5-10年</v>
-      </c>
+      <c r="F259" s="4"/>
       <c r="G259" s="4">
         <v>1</v>
       </c>
@@ -15571,10 +14797,7 @@
       <c r="E260" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F260" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F260" s="4"/>
       <c r="G260" s="4">
         <v>1</v>
       </c>
@@ -15615,10 +14838,7 @@
       <c r="E261" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F261" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F261" s="4"/>
       <c r="G261" s="4">
         <v>1</v>
       </c>
@@ -15659,10 +14879,7 @@
       <c r="E262" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F262" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F262" s="4"/>
       <c r="G262" s="4">
         <v>1</v>
       </c>
@@ -15703,10 +14920,7 @@
       <c r="E263" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F263" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F263" s="4"/>
       <c r="G263" s="4">
         <v>1</v>
       </c>
@@ -15747,10 +14961,7 @@
       <c r="E264" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F264" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F264" s="4"/>
       <c r="G264" s="4">
         <v>1</v>
       </c>
@@ -15791,10 +15002,7 @@
       <c r="E265" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F265" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F265" s="4"/>
       <c r="G265" s="4">
         <v>1</v>
       </c>
@@ -15835,10 +15043,7 @@
       <c r="E266" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F266" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F266" s="4"/>
       <c r="G266" s="4" t="s">
         <v>354</v>
       </c>
@@ -15879,10 +15084,7 @@
       <c r="E267" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F267" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F267" s="4"/>
       <c r="G267" s="4">
         <v>1</v>
       </c>
@@ -15923,10 +15125,7 @@
       <c r="E268" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F268" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F268" s="4"/>
       <c r="G268" s="4">
         <v>1</v>
       </c>
@@ -15967,10 +15166,7 @@
       <c r="E269" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F269" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F269" s="4"/>
       <c r="G269" s="4">
         <v>1</v>
       </c>
@@ -16011,10 +15207,7 @@
       <c r="E270" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F270" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F270" s="4"/>
       <c r="G270" s="4">
         <v>1</v>
       </c>
@@ -16055,10 +15248,7 @@
       <c r="E271" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F271" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F271" s="4"/>
       <c r="G271" s="4">
         <v>1</v>
       </c>
@@ -16099,10 +15289,7 @@
       <c r="E272" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F272" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F272" s="4"/>
       <c r="G272" s="4">
         <v>1</v>
       </c>
@@ -16143,10 +15330,7 @@
       <c r="E273" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F273" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F273" s="4"/>
       <c r="G273" s="4">
         <v>1</v>
       </c>
@@ -16187,10 +15371,7 @@
       <c r="E274" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F274" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F274" s="4"/>
       <c r="G274" s="4">
         <v>1</v>
       </c>
@@ -16231,10 +15412,7 @@
       <c r="E275" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F275" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F275" s="4"/>
       <c r="G275" s="4">
         <v>1</v>
       </c>
@@ -16275,10 +15453,7 @@
       <c r="E276" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F276" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F276" s="4"/>
       <c r="G276" s="4">
         <v>1</v>
       </c>
@@ -16319,10 +15494,7 @@
       <c r="E277" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F277" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F277" s="4"/>
       <c r="G277" s="4">
         <v>1</v>
       </c>
@@ -16363,10 +15535,7 @@
       <c r="E278" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F278" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F278" s="4"/>
       <c r="G278" s="4">
         <v>1</v>
       </c>
@@ -16407,10 +15576,7 @@
       <c r="E279" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F279" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F279" s="4"/>
       <c r="G279" s="4">
         <v>1</v>
       </c>
@@ -16451,10 +15617,7 @@
       <c r="E280" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F280" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F280" s="4"/>
       <c r="G280" s="4">
         <v>1</v>
       </c>
@@ -16495,10 +15658,7 @@
       <c r="E281" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F281" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F281" s="4"/>
       <c r="G281" s="4">
         <v>1</v>
       </c>
@@ -16539,10 +15699,7 @@
       <c r="E282" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F282" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F282" s="4"/>
       <c r="G282" s="4">
         <v>1</v>
       </c>
@@ -16583,10 +15740,7 @@
       <c r="E283" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F283" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F283" s="4"/>
       <c r="G283" s="4">
         <v>1</v>
       </c>
@@ -16627,10 +15781,7 @@
       <c r="E284" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F284" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F284" s="4"/>
       <c r="G284" s="4">
         <v>1</v>
       </c>
@@ -16671,10 +15822,7 @@
       <c r="E285" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F285" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F285" s="4"/>
       <c r="G285" s="4">
         <v>1</v>
       </c>
@@ -16715,10 +15863,7 @@
       <c r="E286" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F286" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F286" s="4"/>
       <c r="G286" s="4">
         <v>1</v>
       </c>
@@ -16759,10 +15904,7 @@
       <c r="E287" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F287" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F287" s="4"/>
       <c r="G287" s="4" t="s">
         <v>354</v>
       </c>
@@ -16803,10 +15945,7 @@
       <c r="E288" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F288" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F288" s="4"/>
       <c r="G288" s="4">
         <v>1</v>
       </c>
@@ -16847,10 +15986,7 @@
       <c r="E289" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F289" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F289" s="4"/>
       <c r="G289" s="4">
         <v>1</v>
       </c>
@@ -16891,10 +16027,7 @@
       <c r="E290" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F290" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F290" s="4"/>
       <c r="G290" s="4">
         <v>1</v>
       </c>
@@ -16935,10 +16068,7 @@
       <c r="E291" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F291" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F291" s="4"/>
       <c r="G291" s="4">
         <v>1</v>
       </c>
@@ -16979,10 +16109,7 @@
       <c r="E292" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F292" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F292" s="4"/>
       <c r="G292" s="4" t="s">
         <v>634</v>
       </c>
@@ -17023,10 +16150,7 @@
       <c r="E293" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F293" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F293" s="4"/>
       <c r="G293" s="4">
         <v>1</v>
       </c>
@@ -17067,10 +16191,7 @@
       <c r="E294" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F294" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F294" s="4"/>
       <c r="G294" s="4">
         <v>1</v>
       </c>
@@ -17111,10 +16232,7 @@
       <c r="E295" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F295" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F295" s="4"/>
       <c r="G295" s="4">
         <v>1</v>
       </c>
@@ -17155,10 +16273,7 @@
       <c r="E296" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F296" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F296" s="4"/>
       <c r="G296" s="4" t="s">
         <v>634</v>
       </c>
@@ -17199,10 +16314,7 @@
       <c r="E297" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F297" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F297" s="4"/>
       <c r="G297" s="4">
         <v>1</v>
       </c>
@@ -17243,10 +16355,7 @@
       <c r="E298" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F298" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F298" s="4"/>
       <c r="G298" s="4">
         <v>1</v>
       </c>
@@ -17287,10 +16396,7 @@
       <c r="E299" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F299" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F299" s="4"/>
       <c r="G299" s="4" t="s">
         <v>354</v>
       </c>
@@ -17331,10 +16437,7 @@
       <c r="E300" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F300" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F300" s="4"/>
       <c r="G300" s="4">
         <v>1</v>
       </c>
@@ -17375,10 +16478,7 @@
       <c r="E301" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F301" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F301" s="4"/>
       <c r="G301" s="4">
         <v>1</v>
       </c>
@@ -17419,10 +16519,7 @@
       <c r="E302" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F302" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F302" s="4"/>
       <c r="G302" s="4">
         <v>1</v>
       </c>
@@ -17463,10 +16560,7 @@
       <c r="E303" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F303" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F303" s="4"/>
       <c r="G303" s="4">
         <v>1</v>
       </c>
@@ -17507,10 +16601,7 @@
       <c r="E304" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F304" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F304" s="4"/>
       <c r="G304" s="4" t="s">
         <v>634</v>
       </c>
@@ -17551,10 +16642,7 @@
       <c r="E305" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F305" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F305" s="4"/>
       <c r="G305" s="4">
         <v>1</v>
       </c>
@@ -17595,10 +16683,7 @@
       <c r="E306" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F306" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F306" s="4"/>
       <c r="G306" s="4">
         <v>1</v>
       </c>
@@ -17639,10 +16724,7 @@
       <c r="E307" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F307" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F307" s="4"/>
       <c r="G307" s="4">
         <v>1</v>
       </c>
@@ -17683,10 +16765,7 @@
       <c r="E308" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F308" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F308" s="4"/>
       <c r="G308" s="4">
         <v>1</v>
       </c>
@@ -17727,10 +16806,7 @@
       <c r="E309" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F309" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F309" s="4"/>
       <c r="G309" s="4">
         <v>1</v>
       </c>
@@ -17771,10 +16847,7 @@
       <c r="E310" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F310" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F310" s="4"/>
       <c r="G310" s="4">
         <v>1</v>
       </c>
@@ -17815,10 +16888,7 @@
       <c r="E311" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F311" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F311" s="4"/>
       <c r="G311" s="4">
         <v>1</v>
       </c>
@@ -17859,10 +16929,7 @@
       <c r="E312" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F312" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F312" s="4"/>
       <c r="G312" s="4">
         <v>1</v>
       </c>
@@ -17903,10 +16970,7 @@
       <c r="E313" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F313" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F313" s="4"/>
       <c r="G313" s="4">
         <v>1</v>
       </c>
@@ -17947,10 +17011,7 @@
       <c r="E314" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F314" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F314" s="4"/>
       <c r="G314" s="4">
         <v>1</v>
       </c>
@@ -17991,10 +17052,7 @@
       <c r="E315" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F315" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F315" s="4"/>
       <c r="G315" s="4">
         <v>1</v>
       </c>
@@ -18035,10 +17093,7 @@
       <c r="E316" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F316" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F316" s="4"/>
       <c r="G316" s="4">
         <v>1</v>
       </c>
@@ -18079,10 +17134,7 @@
       <c r="E317" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F317" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F317" s="4"/>
       <c r="G317" s="4">
         <v>1</v>
       </c>
@@ -18123,10 +17175,7 @@
       <c r="E318" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F318" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>不限</v>
-      </c>
+      <c r="F318" s="4"/>
       <c r="G318" s="4">
         <v>1</v>
       </c>
@@ -18167,10 +17216,7 @@
       <c r="E319" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F319" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F319" s="4"/>
       <c r="G319" s="4">
         <v>1</v>
       </c>
@@ -18211,10 +17257,7 @@
       <c r="E320" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F320" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F320" s="4"/>
       <c r="G320" s="4">
         <v>1</v>
       </c>
@@ -18255,10 +17298,7 @@
       <c r="E321" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F321" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F321" s="4"/>
       <c r="G321" s="4" t="s">
         <v>354</v>
       </c>
@@ -18299,10 +17339,7 @@
       <c r="E322" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F322" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F322" s="4"/>
       <c r="G322" s="4">
         <v>1</v>
       </c>
@@ -18343,10 +17380,7 @@
       <c r="E323" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F323" s="4" t="str">
-        <f t="shared" ref="F323:F386" si="5">MID(E323,3,6)</f>
-        <v>1-3年</v>
-      </c>
+      <c r="F323" s="4"/>
       <c r="G323" s="4" t="s">
         <v>354</v>
       </c>
@@ -18387,10 +17421,7 @@
       <c r="E324" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F324" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F324" s="4"/>
       <c r="G324" s="4" t="s">
         <v>51</v>
       </c>
@@ -18431,10 +17462,7 @@
       <c r="E325" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F325" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F325" s="4"/>
       <c r="G325" s="4">
         <v>1</v>
       </c>
@@ -18475,10 +17503,7 @@
       <c r="E326" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F326" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F326" s="4"/>
       <c r="G326" s="4">
         <v>1</v>
       </c>
@@ -18519,10 +17544,7 @@
       <c r="E327" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F327" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F327" s="4"/>
       <c r="G327" s="4">
         <v>1</v>
       </c>
@@ -18563,10 +17585,7 @@
       <c r="E328" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F328" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F328" s="4"/>
       <c r="G328" s="4">
         <v>1</v>
       </c>
@@ -18607,10 +17626,7 @@
       <c r="E329" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F329" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F329" s="4"/>
       <c r="G329" s="4">
         <v>1</v>
       </c>
@@ -18651,10 +17667,7 @@
       <c r="E330" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F330" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F330" s="4"/>
       <c r="G330" s="4" t="s">
         <v>354</v>
       </c>
@@ -18695,10 +17708,7 @@
       <c r="E331" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F331" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F331" s="4"/>
       <c r="G331" s="4">
         <v>1</v>
       </c>
@@ -18739,10 +17749,7 @@
       <c r="E332" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F332" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F332" s="4"/>
       <c r="G332" s="4">
         <v>1</v>
       </c>
@@ -18783,10 +17790,7 @@
       <c r="E333" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F333" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F333" s="4"/>
       <c r="G333" s="4" t="s">
         <v>51</v>
       </c>
@@ -18827,10 +17831,7 @@
       <c r="E334" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F334" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F334" s="4"/>
       <c r="G334" s="4" t="s">
         <v>354</v>
       </c>
@@ -18871,10 +17872,7 @@
       <c r="E335" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F335" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>不限</v>
-      </c>
+      <c r="F335" s="4"/>
       <c r="G335" s="4" t="s">
         <v>354</v>
       </c>
@@ -18915,10 +17913,7 @@
       <c r="E336" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F336" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F336" s="4"/>
       <c r="G336" s="4">
         <v>1</v>
       </c>
@@ -18959,10 +17954,7 @@
       <c r="E337" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F337" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F337" s="4"/>
       <c r="G337" s="4" t="s">
         <v>354</v>
       </c>
@@ -19003,10 +17995,7 @@
       <c r="E338" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F338" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F338" s="4"/>
       <c r="G338" s="4">
         <v>1</v>
       </c>
@@ -19047,10 +18036,7 @@
       <c r="E339" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F339" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>不限</v>
-      </c>
+      <c r="F339" s="4"/>
       <c r="G339" s="4">
         <v>1</v>
       </c>
@@ -19091,10 +18077,7 @@
       <c r="E340" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F340" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F340" s="4"/>
       <c r="G340" s="4">
         <v>1</v>
       </c>
@@ -19135,10 +18118,7 @@
       <c r="E341" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F341" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F341" s="4"/>
       <c r="G341" s="4">
         <v>1</v>
       </c>
@@ -19179,10 +18159,7 @@
       <c r="E342" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F342" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F342" s="4"/>
       <c r="G342" s="4">
         <v>1</v>
       </c>
@@ -19223,10 +18200,7 @@
       <c r="E343" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F343" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F343" s="4"/>
       <c r="G343" s="4">
         <v>1</v>
       </c>
@@ -19267,10 +18241,7 @@
       <c r="E344" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F344" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F344" s="4"/>
       <c r="G344" s="4">
         <v>1</v>
       </c>
@@ -19311,10 +18282,7 @@
       <c r="E345" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F345" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F345" s="4"/>
       <c r="G345" s="4">
         <v>1</v>
       </c>
@@ -19355,10 +18323,7 @@
       <c r="E346" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F346" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F346" s="4"/>
       <c r="G346" s="4">
         <v>1</v>
       </c>
@@ -19399,10 +18364,7 @@
       <c r="E347" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F347" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F347" s="4"/>
       <c r="G347" s="4">
         <v>1</v>
       </c>
@@ -19443,10 +18405,7 @@
       <c r="E348" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F348" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F348" s="4"/>
       <c r="G348" s="4">
         <v>1</v>
       </c>
@@ -19487,10 +18446,7 @@
       <c r="E349" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F349" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F349" s="4"/>
       <c r="G349" s="4">
         <v>1</v>
       </c>
@@ -19531,10 +18487,7 @@
       <c r="E350" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F350" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F350" s="4"/>
       <c r="G350" s="4">
         <v>1</v>
       </c>
@@ -19575,10 +18528,7 @@
       <c r="E351" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F351" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>不限</v>
-      </c>
+      <c r="F351" s="4"/>
       <c r="G351" s="4" t="s">
         <v>634</v>
       </c>
@@ -19619,10 +18569,7 @@
       <c r="E352" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F352" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F352" s="4"/>
       <c r="G352" s="4">
         <v>1</v>
       </c>
@@ -19663,10 +18610,7 @@
       <c r="E353" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F353" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F353" s="4"/>
       <c r="G353" s="4">
         <v>1</v>
       </c>
@@ -19707,10 +18651,7 @@
       <c r="E354" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F354" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F354" s="4"/>
       <c r="G354" s="4">
         <v>1</v>
       </c>
@@ -19751,10 +18692,7 @@
       <c r="E355" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F355" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F355" s="4"/>
       <c r="G355" s="4" t="s">
         <v>354</v>
       </c>
@@ -19795,10 +18733,7 @@
       <c r="E356" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F356" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F356" s="4"/>
       <c r="G356" s="4">
         <v>1</v>
       </c>
@@ -19839,10 +18774,7 @@
       <c r="E357" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F357" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F357" s="4"/>
       <c r="G357" s="4">
         <v>1</v>
       </c>
@@ -19883,10 +18815,7 @@
       <c r="E358" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F358" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F358" s="4"/>
       <c r="G358" s="4">
         <v>1</v>
       </c>
@@ -19927,10 +18856,7 @@
       <c r="E359" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F359" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F359" s="4"/>
       <c r="G359" s="4">
         <v>1</v>
       </c>
@@ -19971,10 +18897,7 @@
       <c r="E360" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F360" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F360" s="4"/>
       <c r="G360" s="4">
         <v>1</v>
       </c>
@@ -20015,10 +18938,7 @@
       <c r="E361" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F361" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F361" s="4"/>
       <c r="G361" s="4">
         <v>1</v>
       </c>
@@ -20059,10 +18979,7 @@
       <c r="E362" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F362" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>不限</v>
-      </c>
+      <c r="F362" s="4"/>
       <c r="G362" s="4" t="s">
         <v>634</v>
       </c>
@@ -20103,10 +19020,7 @@
       <c r="E363" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F363" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F363" s="4"/>
       <c r="G363" s="4">
         <v>1</v>
       </c>
@@ -20147,10 +19061,7 @@
       <c r="E364" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F364" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F364" s="4"/>
       <c r="G364" s="4">
         <v>1</v>
       </c>
@@ -20191,10 +19102,7 @@
       <c r="E365" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F365" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F365" s="4"/>
       <c r="G365" s="4">
         <v>1</v>
       </c>
@@ -20235,10 +19143,7 @@
       <c r="E366" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F366" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F366" s="4"/>
       <c r="G366" s="4" t="s">
         <v>354</v>
       </c>
@@ -20279,10 +19184,7 @@
       <c r="E367" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F367" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F367" s="4"/>
       <c r="G367" s="4">
         <v>1</v>
       </c>
@@ -20323,10 +19225,7 @@
       <c r="E368" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F368" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F368" s="4"/>
       <c r="G368" s="4">
         <v>1</v>
       </c>
@@ -20367,10 +19266,7 @@
       <c r="E369" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F369" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F369" s="4"/>
       <c r="G369" s="4">
         <v>1</v>
       </c>
@@ -20411,10 +19307,7 @@
       <c r="E370" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F370" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F370" s="4"/>
       <c r="G370" s="4">
         <v>1</v>
       </c>
@@ -20455,10 +19348,7 @@
       <c r="E371" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F371" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F371" s="4"/>
       <c r="G371" s="4">
         <v>1</v>
       </c>
@@ -20499,10 +19389,7 @@
       <c r="E372" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F372" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F372" s="4"/>
       <c r="G372" s="4">
         <v>1</v>
       </c>
@@ -20543,10 +19430,7 @@
       <c r="E373" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F373" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F373" s="4"/>
       <c r="G373" s="4">
         <v>1</v>
       </c>
@@ -20587,10 +19471,7 @@
       <c r="E374" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F374" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>不限</v>
-      </c>
+      <c r="F374" s="4"/>
       <c r="G374" s="4">
         <v>1</v>
       </c>
@@ -20631,10 +19512,7 @@
       <c r="E375" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F375" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F375" s="4"/>
       <c r="G375" s="4">
         <v>1</v>
       </c>
@@ -20675,10 +19553,7 @@
       <c r="E376" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="F376" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1年以下</v>
-      </c>
+      <c r="F376" s="4"/>
       <c r="G376" s="4">
         <v>1</v>
       </c>
@@ -20719,10 +19594,7 @@
       <c r="E377" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F377" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F377" s="4"/>
       <c r="G377" s="4">
         <v>1</v>
       </c>
@@ -20763,10 +19635,7 @@
       <c r="E378" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F378" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F378" s="4"/>
       <c r="G378" s="4">
         <v>1</v>
       </c>
@@ -20807,10 +19676,7 @@
       <c r="E379" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F379" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F379" s="4"/>
       <c r="G379" s="4">
         <v>1</v>
       </c>
@@ -20851,10 +19717,7 @@
       <c r="E380" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F380" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F380" s="4"/>
       <c r="G380" s="4">
         <v>1</v>
       </c>
@@ -20895,10 +19758,7 @@
       <c r="E381" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F381" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F381" s="4"/>
       <c r="G381" s="4" t="s">
         <v>354</v>
       </c>
@@ -20939,10 +19799,7 @@
       <c r="E382" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F382" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F382" s="4"/>
       <c r="G382" s="4" t="s">
         <v>354</v>
       </c>
@@ -20983,10 +19840,7 @@
       <c r="E383" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F383" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F383" s="4"/>
       <c r="G383" s="4">
         <v>1</v>
       </c>
@@ -21027,10 +19881,7 @@
       <c r="E384" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F384" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F384" s="4"/>
       <c r="G384" s="4">
         <v>1</v>
       </c>
@@ -21071,10 +19922,7 @@
       <c r="E385" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F385" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F385" s="4"/>
       <c r="G385" s="4">
         <v>1</v>
       </c>
@@ -21115,10 +19963,7 @@
       <c r="E386" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F386" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F386" s="4"/>
       <c r="G386" s="4">
         <v>1</v>
       </c>
@@ -21159,10 +20004,7 @@
       <c r="E387" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F387" s="4" t="str">
-        <f t="shared" ref="F387:F450" si="6">MID(E387,3,6)</f>
-        <v>1-3年</v>
-      </c>
+      <c r="F387" s="4"/>
       <c r="G387" s="4">
         <v>1</v>
       </c>
@@ -21203,10 +20045,7 @@
       <c r="E388" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F388" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F388" s="4"/>
       <c r="G388" s="4">
         <v>1</v>
       </c>
@@ -21247,10 +20086,7 @@
       <c r="E389" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F389" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F389" s="4"/>
       <c r="G389" s="4">
         <v>1</v>
       </c>
@@ -21291,10 +20127,7 @@
       <c r="E390" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F390" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F390" s="4"/>
       <c r="G390" s="4" t="s">
         <v>51</v>
       </c>
@@ -21335,10 +20168,7 @@
       <c r="E391" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F391" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F391" s="4"/>
       <c r="G391" s="4">
         <v>1</v>
       </c>
@@ -21379,10 +20209,7 @@
       <c r="E392" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F392" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F392" s="4"/>
       <c r="G392" s="4" t="s">
         <v>51</v>
       </c>
@@ -21423,10 +20250,7 @@
       <c r="E393" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F393" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F393" s="4"/>
       <c r="G393" s="4">
         <v>1</v>
       </c>
@@ -21467,10 +20291,7 @@
       <c r="E394" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F394" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F394" s="4"/>
       <c r="G394" s="4">
         <v>1</v>
       </c>
@@ -21511,10 +20332,7 @@
       <c r="E395" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F395" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F395" s="4"/>
       <c r="G395" s="4">
         <v>1</v>
       </c>
@@ -21555,10 +20373,7 @@
       <c r="E396" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F396" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F396" s="4"/>
       <c r="G396" s="4" t="s">
         <v>51</v>
       </c>
@@ -21599,10 +20414,7 @@
       <c r="E397" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F397" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F397" s="4"/>
       <c r="G397" s="4">
         <v>1</v>
       </c>
@@ -21643,10 +20455,7 @@
       <c r="E398" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F398" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F398" s="4"/>
       <c r="G398" s="4">
         <v>1</v>
       </c>
@@ -21687,10 +20496,7 @@
       <c r="E399" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F399" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F399" s="4"/>
       <c r="G399" s="4">
         <v>1</v>
       </c>
@@ -21731,10 +20537,7 @@
       <c r="E400" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F400" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F400" s="4"/>
       <c r="G400" s="4">
         <v>1</v>
       </c>
@@ -21775,10 +20578,7 @@
       <c r="E401" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F401" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F401" s="4"/>
       <c r="G401" s="4">
         <v>1</v>
       </c>
@@ -21819,10 +20619,7 @@
       <c r="E402" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F402" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F402" s="4"/>
       <c r="G402" s="4" t="s">
         <v>634</v>
       </c>
@@ -21863,10 +20660,7 @@
       <c r="E403" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F403" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F403" s="4"/>
       <c r="G403" s="4">
         <v>1</v>
       </c>
@@ -21907,10 +20701,7 @@
       <c r="E404" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F404" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>不限</v>
-      </c>
+      <c r="F404" s="4"/>
       <c r="G404" s="4" t="s">
         <v>634</v>
       </c>
@@ -21951,10 +20742,7 @@
       <c r="E405" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F405" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>不限</v>
-      </c>
+      <c r="F405" s="4"/>
       <c r="G405" s="4" t="s">
         <v>634</v>
       </c>
@@ -21995,10 +20783,7 @@
       <c r="E406" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F406" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F406" s="4"/>
       <c r="G406" s="4">
         <v>1</v>
       </c>
@@ -22039,10 +20824,7 @@
       <c r="E407" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F407" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F407" s="4"/>
       <c r="G407" s="4">
         <v>1</v>
       </c>
@@ -22083,10 +20865,7 @@
       <c r="E408" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F408" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>不限</v>
-      </c>
+      <c r="F408" s="4"/>
       <c r="G408" s="4" t="s">
         <v>634</v>
       </c>
@@ -22127,10 +20906,7 @@
       <c r="E409" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F409" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F409" s="4"/>
       <c r="G409" s="4">
         <v>1</v>
       </c>
@@ -22171,10 +20947,7 @@
       <c r="E410" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F410" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F410" s="4"/>
       <c r="G410" s="4">
         <v>1</v>
       </c>
@@ -22215,10 +20988,7 @@
       <c r="E411" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F411" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F411" s="4"/>
       <c r="G411" s="4">
         <v>1</v>
       </c>
@@ -22259,10 +21029,7 @@
       <c r="E412" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F412" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F412" s="4"/>
       <c r="G412" s="4">
         <v>1</v>
       </c>
@@ -22303,10 +21070,7 @@
       <c r="E413" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F413" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F413" s="4"/>
       <c r="G413" s="4">
         <v>1</v>
       </c>
@@ -22347,10 +21111,7 @@
       <c r="E414" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F414" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F414" s="4"/>
       <c r="G414" s="4">
         <v>1</v>
       </c>
@@ -22391,10 +21152,7 @@
       <c r="E415" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F415" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F415" s="4"/>
       <c r="G415" s="4">
         <v>1</v>
       </c>
@@ -22435,10 +21193,7 @@
       <c r="E416" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F416" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F416" s="4"/>
       <c r="G416" s="4">
         <v>1</v>
       </c>
@@ -22479,10 +21234,7 @@
       <c r="E417" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F417" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F417" s="4"/>
       <c r="G417" s="4">
         <v>1</v>
       </c>
@@ -22523,10 +21275,7 @@
       <c r="E418" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F418" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F418" s="4"/>
       <c r="G418" s="4">
         <v>1</v>
       </c>
@@ -22567,10 +21316,7 @@
       <c r="E419" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F419" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F419" s="4"/>
       <c r="G419" s="4">
         <v>1</v>
       </c>
@@ -22611,10 +21357,7 @@
       <c r="E420" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F420" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F420" s="4"/>
       <c r="G420" s="4">
         <v>1</v>
       </c>
@@ -22655,10 +21398,7 @@
       <c r="E421" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F421" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F421" s="4"/>
       <c r="G421" s="4">
         <v>1</v>
       </c>
@@ -22699,10 +21439,7 @@
       <c r="E422" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F422" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F422" s="4"/>
       <c r="G422" s="4">
         <v>1</v>
       </c>
@@ -22743,10 +21480,7 @@
       <c r="E423" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F423" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F423" s="4"/>
       <c r="G423" s="4">
         <v>1</v>
       </c>
@@ -22787,10 +21521,7 @@
       <c r="E424" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F424" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F424" s="4"/>
       <c r="G424" s="4">
         <v>1</v>
       </c>
@@ -22831,10 +21562,7 @@
       <c r="E425" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F425" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F425" s="4"/>
       <c r="G425" s="4">
         <v>1</v>
       </c>
@@ -22875,10 +21603,7 @@
       <c r="E426" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F426" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F426" s="4"/>
       <c r="G426" s="4" t="s">
         <v>354</v>
       </c>
@@ -22919,10 +21644,7 @@
       <c r="E427" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F427" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F427" s="4"/>
       <c r="G427" s="4" t="s">
         <v>354</v>
       </c>
@@ -22963,10 +21685,7 @@
       <c r="E428" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F428" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F428" s="4"/>
       <c r="G428" s="4">
         <v>1</v>
       </c>
@@ -23007,10 +21726,7 @@
       <c r="E429" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F429" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F429" s="4"/>
       <c r="G429" s="4">
         <v>1</v>
       </c>
@@ -23051,10 +21767,7 @@
       <c r="E430" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F430" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F430" s="4"/>
       <c r="G430" s="4">
         <v>1</v>
       </c>
@@ -23095,10 +21808,7 @@
       <c r="E431" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F431" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F431" s="4"/>
       <c r="G431" s="4">
         <v>1</v>
       </c>
@@ -23139,10 +21849,7 @@
       <c r="E432" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F432" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F432" s="4"/>
       <c r="G432" s="4">
         <v>1</v>
       </c>
@@ -23183,10 +21890,7 @@
       <c r="E433" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F433" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F433" s="4"/>
       <c r="G433" s="4" t="s">
         <v>354</v>
       </c>
@@ -23227,10 +21931,7 @@
       <c r="E434" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F434" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>不限</v>
-      </c>
+      <c r="F434" s="4"/>
       <c r="G434" s="4">
         <v>1</v>
       </c>
@@ -23271,10 +21972,7 @@
       <c r="E435" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F435" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>不限</v>
-      </c>
+      <c r="F435" s="4"/>
       <c r="G435" s="4">
         <v>1</v>
       </c>
@@ -23315,10 +22013,7 @@
       <c r="E436" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F436" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F436" s="4"/>
       <c r="G436" s="4">
         <v>1</v>
       </c>
@@ -23359,10 +22054,7 @@
       <c r="E437" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="F437" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>应届毕业生</v>
-      </c>
+      <c r="F437" s="4"/>
       <c r="G437" s="4">
         <v>1</v>
       </c>
@@ -23403,10 +22095,7 @@
       <c r="E438" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F438" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F438" s="4"/>
       <c r="G438" s="4">
         <v>1</v>
       </c>
@@ -23447,10 +22136,7 @@
       <c r="E439" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F439" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F439" s="4"/>
       <c r="G439" s="4" t="s">
         <v>354</v>
       </c>
@@ -23491,10 +22177,7 @@
       <c r="E440" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F440" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F440" s="4"/>
       <c r="G440" s="4" t="s">
         <v>354</v>
       </c>
@@ -23535,10 +22218,7 @@
       <c r="E441" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F441" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F441" s="4"/>
       <c r="G441" s="4">
         <v>1</v>
       </c>
@@ -23579,10 +22259,7 @@
       <c r="E442" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F442" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>不限</v>
-      </c>
+      <c r="F442" s="4"/>
       <c r="G442" s="4" t="s">
         <v>634</v>
       </c>
@@ -23623,10 +22300,7 @@
       <c r="E443" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F443" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F443" s="4"/>
       <c r="G443" s="4">
         <v>1</v>
       </c>
@@ -23667,10 +22341,7 @@
       <c r="E444" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F444" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F444" s="4"/>
       <c r="G444" s="4">
         <v>1</v>
       </c>
@@ -23711,10 +22382,7 @@
       <c r="E445" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F445" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F445" s="4"/>
       <c r="G445" s="4">
         <v>1</v>
       </c>
@@ -23755,10 +22423,7 @@
       <c r="E446" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F446" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F446" s="4"/>
       <c r="G446" s="4">
         <v>1</v>
       </c>
@@ -23799,10 +22464,7 @@
       <c r="E447" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F447" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>3-5年</v>
-      </c>
+      <c r="F447" s="4"/>
       <c r="G447" s="4">
         <v>1</v>
       </c>
@@ -23843,10 +22505,7 @@
       <c r="E448" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F448" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F448" s="4"/>
       <c r="G448" s="4">
         <v>1</v>
       </c>
@@ -23887,10 +22546,7 @@
       <c r="E449" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F449" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>1-3年</v>
-      </c>
+      <c r="F449" s="4"/>
       <c r="G449" s="4">
         <v>1</v>
       </c>
@@ -23931,10 +22587,7 @@
       <c r="E450" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F450" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>5-10年</v>
-      </c>
+      <c r="F450" s="4"/>
       <c r="G450" s="4">
         <v>1</v>
       </c>
